--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willschuerman/Documents/Research/Git/ComparisonArtifactRejectionMethodsDirectCorticalPeripheralStimulationHumanECoG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willschuerman/Documents/Research/Git/StimulationArtifactRejectionMethods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15F6F96-D262-7146-804D-26E4FC077EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861BB189-E954-584B-A35A-82BD4124C6B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{5851FAD7-5092-E045-8EE3-D4CB9C40BBFD}"/>
   </bookViews>
@@ -487,10 +487,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,12 +823,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1013,12 +1013,12 @@
     </row>
     <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1183,12 +1183,12 @@
     </row>
     <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1353,12 +1353,12 @@
     </row>
     <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1523,12 +1523,12 @@
     </row>
     <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1693,12 +1693,12 @@
     </row>
     <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1863,13 +1863,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B47:F47"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B47:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>